--- a/imageCreationExcel/back/114/114_1.xlsx
+++ b/imageCreationExcel/back/114/114_1.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.55312231700238</v>
+        <v>1.002456517481565</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9169923515265148</v>
+        <v>0.7468436381372975</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.7587766102624093</v>
+        <v>0.804077434199168</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_9_brightness15.553_contrast0.917_gamma0.759.jpg</t>
+          <t>1_1_contrast1.002_gamma0.747_sharpness0.804.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8379934920773402</v>
+        <v>18.77861571573612</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.080295846687324</v>
+        <v>1.167540136998261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>24.828382627192</v>
+        <v>0.6529466543587934</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_T_contrast0.838_gamma1.08_equalization24.828.jpg</t>
+          <t>2_I_brightness18.779_contrast1.168_gamma0.653.jpg</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6633597655978414</v>
+        <v>0.8141807806940344</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1117548028388017</v>
+        <v>0.1792329577898335</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>31.18420382534977</v>
+        <v>18.09396947043922</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_2_gamma0.663_sharpness0.112_equalization31.184.jpg</t>
+          <t>3_2_gamma0.814_sharpness0.179_equalization18.094.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29.22247867417887</v>
+        <v>1.090859532528432</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9050730905269092</v>
+        <v>0.6228036860915966</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.057743580271416</v>
+        <v>23.47418507534855</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_T_brightness29.222_contrast0.905_gamma1.058.jpg</t>
+          <t>4_I_contrast1.091_gamma0.623_equalization23.474.jpg</t>
         </is>
       </c>
     </row>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23.64249750306302</v>
+        <v>16.05103089623911</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.8787272409117979</v>
+        <v>1.110688097534403</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.1453367058726464</v>
+        <v>0.8811868534607283</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_1_brightness23.642_contrast0.879_sharpness0.145.jpg</t>
+          <t>5_1_brightness16.051_contrast1.111_sharpness0.881.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9634359672164128</v>
+        <v>5.242017684173947</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8333781668313782</v>
+        <v>0.6017702351240585</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22.26825736918943</v>
+        <v>0.5397565050866604</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_B_gamma0.963_sharpness0.833_equalization22.268.jpg</t>
+          <t>6_1_brightness5.242_gamma0.602_sharpness0.54.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.148325991779384</v>
+        <v>1.133368379568073</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9793018175641834</v>
+        <v>0.7111644912129218</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8679922231325761</v>
+        <v>24.27870143827779</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_brightness5.148_contrast0.979_sharpness0.868.jpg</t>
+          <t>7_8_contrast1.133_gamma0.711_equalization24.279.jpg</t>
         </is>
       </c>
     </row>
@@ -785,11 +785,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9.508876512315709</v>
+        <v>1.030301695551364</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6453137357820169</v>
+        <v>1.050539334021314</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9100875000250318</v>
+        <v>9.852215291580471</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_9_brightness9.509_gamma0.645_sharpness0.91.jpg</t>
+          <t>8_9_contrast1.03_gamma1.051_equalization9.852.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,30 +831,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8367470322002201</v>
+        <v>0.8916174784564828</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7437807591817263</v>
+        <v>0.9538493965979387</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.04650488865180291</v>
+        <v>21.82162805730866</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_3_contrast0.837_gamma0.744_sharpness0.047.jpg</t>
+          <t>9_0_contrast0.892_sharpness0.954_equalization21.822.jpg</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.407479454774856</v>
+        <v>15.65299956738652</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.102671318076409</v>
+        <v>1.115661457177711</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.1975532509023448</v>
+        <v>0.9721127575572128</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_brightness5.407_contrast1.103_sharpness0.198.jpg</t>
+          <t>10_9_brightness15.653_contrast1.116_sharpness0.972.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.051008633231266</v>
+        <v>0.9585222599583273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7373617038657279</v>
+        <v>0.2714494101710022</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.4103622127392468</v>
+        <v>26.30960822566563</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_I_contrast1.051_gamma0.737_sharpness0.41.jpg</t>
+          <t>11_8_contrast0.959_sharpness0.271_equalization26.31.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8179702709563196</v>
+        <v>0.5117709105462179</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7423778373658388</v>
+        <v>0.5412246474215826</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>29.25554280521436</v>
+        <v>21.70912133595951</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_I_contrast0.818_sharpness0.742_equalization29.256.jpg</t>
+          <t>12_2_gamma0.512_sharpness0.541_equalization21.709.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14.00390535823519</v>
+        <v>6.207056917000382</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.185592495276681</v>
+        <v>1.153528943528574</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.079115914730837</v>
+        <v>0.9645670874155192</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_brightness14.004_contrast1.186_gamma1.079.jpg</t>
+          <t>13_8_brightness6.207_contrast1.154_gamma0.965.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.126994361717379</v>
+        <v>0.8496176496479086</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.023643226631334</v>
+        <v>0.7128229616111496</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1057,14 +1057,14 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>15.13911194777307</v>
+        <v>14.56476863601412</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_B_contrast1.127_gamma1.024_equalization15.139.jpg</t>
+          <t>14_T_contrast0.85_gamma0.713_equalization14.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8301799397646574</v>
+        <v>1.172316108970149</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.3315580561051377</v>
+        <v>0.7983898250227639</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>23.27303389802246</v>
+        <v>0.5603526412521017</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_0_contrast0.83_sharpness0.332_equalization23.273.jpg</t>
+          <t>15_S_contrast1.172_gamma0.798_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.092479970764702</v>
+        <v>8.193822401927928</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7772851554828354</v>
+        <v>0.6593833477040606</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>12.83012893607109</v>
+        <v>0.4096322604722571</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_T_contrast1.092_sharpness0.777_equalization12.83.jpg</t>
+          <t>16_3_brightness8.194_gamma0.659_sharpness0.41.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,30 +1167,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.120603732639088</v>
+        <v>0.9205715835678525</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.7748502109679417</v>
+        <v>0.521601843179</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.7666919699716563</v>
+        <v>17.36280835813783</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_contrast1.121_gamma0.775_sharpness0.767.jpg</t>
+          <t>17_T_contrast0.921_sharpness0.522_equalization17.363.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.313589620921113</v>
+        <v>0.7251138916033036</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.03921383438825</v>
+        <v>0.7637815567802251</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.7950433980227204</v>
+        <v>20.0907481095782</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_S_brightness2.314_gamma1.039_sharpness0.795.jpg</t>
+          <t>18_0_gamma0.725_sharpness0.764_equalization20.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5877351818472623</v>
+        <v>19.19779299486312</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7495977566468788</v>
+        <v>0.7291336049956749</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>27.84838707940734</v>
+        <v>0.9268852801797771</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_B_gamma0.588_sharpness0.75_equalization27.848.jpg</t>
+          <t>19_2_brightness19.198_gamma0.729_sharpness0.927.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.5707618764251072</v>
+        <v>19.98544889085316</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.4996244217665406</v>
+        <v>1.174511419655517</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>28.03350184882849</v>
+        <v>0.3182834141165167</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_8_gamma0.571_sharpness0.5_equalization28.034.jpg</t>
+          <t>20_7_brightness19.985_contrast1.175_sharpness0.318.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9375422318001846</v>
+        <v>11.9030879099466</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.798758704822054</v>
+        <v>0.5612237037659835</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>19.6337771211234</v>
+        <v>0.8018764371266278</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_I_contrast0.938_sharpness0.799_equalization19.634.jpg</t>
+          <t>21_8_brightness11.903_gamma0.561_sharpness0.802.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9489897973832</v>
+        <v>0.8578039081565227</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5513591439117607</v>
+        <v>1.093346577223532</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20.14035829058388</v>
+        <v>0.4938650101026973</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_3_gamma0.949_sharpness0.551_equalization20.14.jpg</t>
+          <t>22_8_contrast0.858_gamma1.093_sharpness0.494.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3.15084378413</v>
+        <v>21.28227564688532</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.129782868165233</v>
+        <v>0.6136323790045776</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.0846576354433799</v>
+        <v>0.9193462468672455</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_brightness3.151_contrast1.13_sharpness0.085.jpg</t>
+          <t>23_0_brightness21.282_gamma0.614_sharpness0.919.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>17.13806675341614</v>
+        <v>17.7616337840576</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8373442818669115</v>
+        <v>0.5811935995928966</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9342888695716713</v>
+        <v>0.2914767709449727</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_9_brightness17.138_contrast0.837_gamma0.934.jpg</t>
+          <t>24_7_brightness17.762_gamma0.581_sharpness0.291.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.94680962200551</v>
+        <v>0.8316819750977275</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.097336378054215</v>
+        <v>0.9647319351232686</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.6978141359986791</v>
+        <v>13.65575038342997</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_brightness13.947_contrast1.097_gamma0.698.jpg</t>
+          <t>25_E_contrast0.832_sharpness0.965_equalization13.656.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8338850998569236</v>
+        <v>10.91347321995436</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.6512723963921959</v>
+        <v>1.154684773972418</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.56192399377861</v>
+        <v>0.7070222161515418</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_B_contrast0.834_gamma0.651_equalization20.562.jpg</t>
+          <t>26_C_brightness10.913_contrast1.155_sharpness0.707.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.46003243789227</v>
+        <v>0.646037394464079</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.829552513660012</v>
+        <v>0.6592959349340688</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3628385889973296</v>
+        <v>14.87572013674106</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_brightness12.46_contrast0.83_sharpness0.363.jpg</t>
+          <t>27_T_gamma0.646_sharpness0.659_equalization14.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.133313422519</v>
+        <v>1.025602741646889</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6848743848865753</v>
+        <v>0.5810104497683273</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10.88811305669931</v>
+        <v>0.6134708296326532</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_contrast1.133_gamma0.685_equalization10.888.jpg</t>
+          <t>28_8_contrast1.026_gamma0.581_sharpness0.613.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.176875508392072</v>
+        <v>1.148964863048556</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8188537929403548</v>
+        <v>0.5007659195133193</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10.16786189268986</v>
+        <v>0.7531939314401765</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_9_contrast1.177_sharpness0.819_equalization10.168.jpg</t>
+          <t>29_1_contrast1.149_gamma0.501_sharpness0.753.jpg</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13.00232764056615</v>
+        <v>23.46246626831357</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9223033954205792</v>
+        <v>1.153722256178503</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.5614302814202853</v>
+        <v>0.6271049363873406</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_brightness13.002_contrast0.922_gamma0.561.jpg</t>
+          <t>30_8_brightness23.462_contrast1.154_sharpness0.627.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,24 +1746,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.5433102283540285</v>
+        <v>0.8178830989607579</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.00570911675858317</v>
+        <v>0.6333164794312359</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>30.99994244386366</v>
+        <v>25.46462568767842</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_gamma0.543_sharpness0.006_equalization31.0.jpg</t>
+          <t>31_I_contrast0.818_gamma0.633_equalization25.465.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>14.53387332364825</v>
+        <v>0.8528723177306622</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5262036521725498</v>
+        <v>0.7420288236189645</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.5745476215495687</v>
+        <v>0.7163274107858515</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_0_brightness14.534_gamma0.526_sharpness0.575.jpg</t>
+          <t>32_B_contrast0.853_gamma0.742_sharpness0.716.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.9265921932112766</v>
+        <v>14.12502904528221</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4909801307085006</v>
+        <v>1.067681030147496</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>20.50357631576198</v>
+        <v>0.7134501931783841</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_S_gamma0.927_sharpness0.491_equalization20.504.jpg</t>
+          <t>33_T_brightness14.125_contrast1.068_gamma0.713.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,15 +1881,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.730436760462203</v>
+        <v>16.75003722357627</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.053334125019092</v>
+        <v>0.6923754042492409</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.00658849128191573</v>
+        <v>0.03883402643002945</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_C_brightness3.73_contrast1.053_sharpness0.007.jpg</t>
+          <t>34_2_brightness16.75_gamma0.692_sharpness0.039.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,15 +1923,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8550557318312907</v>
+        <v>0.9465247264136409</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.067457062443477</v>
+        <v>0.9186462262447792</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>24.61302789899973</v>
+        <v>6.412636093386446</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_C_contrast0.855_gamma1.067_equalization24.613.jpg</t>
+          <t>35_9_contrast0.947_sharpness0.919_equalization6.413.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.017641842312824</v>
+        <v>6.510069479557598</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.7118738282108998</v>
+        <v>0.7010659953633583</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>14.18286175164458</v>
+        <v>0.8866298965716627</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_2_contrast1.018_sharpness0.712_equalization14.183.jpg</t>
+          <t>36_E_brightness6.51_gamma0.701_sharpness0.887.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,16 +1998,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>21.81843647751705</v>
+        <v>0.9703202899436697</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.056049039382345</v>
+        <v>0.9492959894657059</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.1095359038379334</v>
+        <v>23.61497182561313</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_brightness21.818_gamma1.056_sharpness0.11.jpg</t>
+          <t>37_B_contrast0.97_gamma0.949_equalization23.615.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.844679784094665</v>
+        <v>1.024691585594861</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.4240858179017544</v>
+        <v>1.169996626101577</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>28.51973339289281</v>
+        <v>0.8006052644448556</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_7_gamma0.845_sharpness0.424_equalization28.52.jpg</t>
+          <t>38_0_brightness1.025_contrast1.17_sharpness0.801.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.050187153000173</v>
+        <v>29.81924517795765</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.2331891866320395</v>
+        <v>1.043560215667414</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>11.50698087103416</v>
+        <v>1.037495082984876</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_T_contrast1.05_sharpness0.233_equalization11.507.jpg</t>
+          <t>39_C_brightness29.819_contrast1.044_gamma1.037.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9272926011188078</v>
+        <v>13.50219173423941</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6011794809246438</v>
+        <v>1.12660004388201</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15.82319457360312</v>
+        <v>1.057139532412696</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_2_contrast0.927_gamma0.601_equalization15.823.jpg</t>
+          <t>40_7_brightness13.502_contrast1.127_gamma1.057.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7.913498265240989</v>
+        <v>16.49523172671555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9083774563391774</v>
+        <v>1.013016327449205</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.5142361913837428</v>
+        <v>0.3136517092537225</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_7_brightness7.913_contrast0.908_sharpness0.514.jpg</t>
+          <t>41_2_brightness16.495_contrast1.013_sharpness0.314.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,15 +2217,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22.8261115864653</v>
+        <v>24.02152518688892</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5434581379673676</v>
+        <v>0.8528214661964943</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.5687819303890065</v>
+        <v>0.7838503035929147</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_brightness22.826_gamma0.543_sharpness0.569.jpg</t>
+          <t>42_9_brightness24.022_contrast0.853_sharpness0.784.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8967994583303638</v>
+        <v>1.176002510912743</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8016307251928431</v>
+        <v>0.8549727818411522</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.178948405898519</v>
+        <v>0.3017395245899825</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_9_contrast0.897_gamma0.802_sharpness0.179.jpg</t>
+          <t>43_C_contrast1.176_gamma0.855_sharpness0.302.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.175469334957366</v>
+        <v>1.02716504067003</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.023907405527723</v>
+        <v>0.7003627909733123</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6.848904769022276</v>
+        <v>5.42007076744861</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_8_contrast1.175_gamma1.024_equalization6.849.jpg</t>
+          <t>44_E_contrast1.027_gamma0.7_equalization5.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6388902027646666</v>
+        <v>0.8672297181503698</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5873957878574931</v>
+        <v>0.6122918325527178</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12.19191537696926</v>
+        <v>29.08609070686184</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_7_gamma0.639_sharpness0.587_equalization12.192.jpg</t>
+          <t>45_3_gamma0.867_sharpness0.612_equalization29.086.jpg</t>
         </is>
       </c>
     </row>
@@ -2381,34 +2381,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4.164266322038959</v>
+        <v>0.6438423741430005</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.7822549196484561</v>
+        <v>0.5855161506528692</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.9671915332766718</v>
+        <v>18.83499290231314</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_brightness4.164_gamma0.782_sharpness0.967.jpg</t>
+          <t>46_B_gamma0.644_sharpness0.586_equalization18.835.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.051067593534632</v>
+        <v>0.9864484435046479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9062409911918561</v>
+        <v>0.7833881294781013</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.8555421266952</v>
+        <v>0.7013079128158412</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_contrast1.051_gamma0.906_sharpness0.856.jpg</t>
+          <t>47_3_contrast0.986_gamma0.783_sharpness0.701.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.5485857098244672</v>
+        <v>0.9611299352263949</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6945096163029982</v>
+        <v>1.027969287355045</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>24.35285041407364</v>
+        <v>19.688724866781</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_P_gamma0.549_sharpness0.695_equalization24.353.jpg</t>
+          <t>48_0_contrast0.961_gamma1.028_equalization19.689.jpg</t>
         </is>
       </c>
     </row>
